--- a/biology/Zoologie/Hutia/Hutia.xlsx
+++ b/biology/Zoologie/Hutia/Hutia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hutia ou jutia est un nom vernaculaire ambigu désignant en français certains rongeurs de grande taille, endémiques des Caraïbes. 
 Les hutias géants, ou Heptaxodontidae, qui pouvaient atteindre la taille d'un ours, ont actuellement tous disparu, chassés par l'homme. On les connaît à l'état de fossiles.
@@ -513,23 +525,25 @@
           <t>Noms vernaculaires et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste alphabétique des noms vernaculaires attestés[1] en français. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste alphabétique des noms vernaculaires attestés en français. 
 Note : certaines espèces sont éteintes.
-Grand Hutia d'Hispaniola - Plagiodontia araeum (éteint)[2]
-Hutia - Isolobodon portoricencis [3]
-Hutia de Cabrera - Mesocapromys angelcabrerai [4]
+Grand Hutia d'Hispaniola - Plagiodontia araeum (éteint)
+Hutia - Isolobodon portoricencis 
+Hutia de Cabrera - Mesocapromys angelcabrerai 
 Hutia de Cuba - Capromys pilorides
-Hutia de Cuba à queue courte  - Geocapromys columbianus (éteint en 1850)[2]
-Hutia à dents larges - Isolobodon montanus (éteint en 1500) ou Plagiodontia ipnaeum (éteint)[2]
-Hutia édenté - Hexolobodon phenax (éteint en 1600)[2]
-Hutia grimpeur de Cuvier commun - la sous-espèce Plagiodontia aedium aedium[5]
-Hutia de l'Ile de Swan - Geocapromys thoracatus (éteint)[2]
-Hutia de Jamaïque - Geocapromys brownii [6]
-Hutia de La Hotte - Rhizoplagiodontia lemkei (éteint)[2]
-Hutia de San Felipe - Mesocapromys sanfelipensis [4]
-Petit Hutia de Cuba - Mesocapromys sanfelipensis (n’a pas été observé depuis près de 40 ans, sans doute éteint)[7]
+Hutia de Cuba à queue courte  - Geocapromys columbianus (éteint en 1850)
+Hutia à dents larges - Isolobodon montanus (éteint en 1500) ou Plagiodontia ipnaeum (éteint)
+Hutia édenté - Hexolobodon phenax (éteint en 1600)
+Hutia grimpeur de Cuvier commun - la sous-espèce Plagiodontia aedium aedium
+Hutia de l'Ile de Swan - Geocapromys thoracatus (éteint)
+Hutia de Jamaïque - Geocapromys brownii 
+Hutia de La Hotte - Rhizoplagiodontia lemkei (éteint)
+Hutia de San Felipe - Mesocapromys sanfelipensis 
+Petit Hutia de Cuba - Mesocapromys sanfelipensis (n’a pas été observé depuis près de 40 ans, sans doute éteint)
 Etc.</t>
         </is>
       </c>
